--- a/natmiOut/OldD7/LR-pairs_lrc2p/Rtn4-Rtn4rl1.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Rtn4-Rtn4rl1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,55 +528,55 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>45.0610293866245</v>
+        <v>57.045267</v>
       </c>
       <c r="H2">
-        <v>45.0610293866245</v>
+        <v>171.135801</v>
       </c>
       <c r="I2">
-        <v>0.2214194852198795</v>
+        <v>0.2489699905037019</v>
       </c>
       <c r="J2">
-        <v>0.2214194852198795</v>
+        <v>0.2489699905037019</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>1.57441997040231</v>
+        <v>0.7301833333333333</v>
       </c>
       <c r="N2">
-        <v>1.57441997040231</v>
+        <v>2.19055</v>
       </c>
       <c r="O2">
-        <v>0.7447361746632023</v>
+        <v>0.1670361508916995</v>
       </c>
       <c r="P2">
-        <v>0.7447361746632023</v>
+        <v>0.1670361508916995</v>
       </c>
       <c r="Q2">
-        <v>70.94498455318697</v>
+        <v>41.65350320895</v>
       </c>
       <c r="R2">
-        <v>70.94498455318697</v>
+        <v>374.88152888055</v>
       </c>
       <c r="S2">
-        <v>0.1648991004185485</v>
+        <v>0.04158698890128134</v>
       </c>
       <c r="T2">
-        <v>0.1648991004185485</v>
+        <v>0.04158698890128135</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,60 +590,60 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>45.0610293866245</v>
+        <v>57.045267</v>
       </c>
       <c r="H3">
-        <v>45.0610293866245</v>
+        <v>171.135801</v>
       </c>
       <c r="I3">
-        <v>0.2214194852198795</v>
+        <v>0.2489699905037019</v>
       </c>
       <c r="J3">
-        <v>0.2214194852198795</v>
+        <v>0.2489699905037019</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.5396440753174</v>
+        <v>1.620945</v>
       </c>
       <c r="N3">
-        <v>0.5396440753174</v>
+        <v>4.862835</v>
       </c>
       <c r="O3">
-        <v>0.2552638253367977</v>
+        <v>0.3708060719095376</v>
       </c>
       <c r="P3">
-        <v>0.2552638253367977</v>
+        <v>0.3708060719095376</v>
       </c>
       <c r="Q3">
-        <v>24.31691753619516</v>
+        <v>92.467240317315</v>
       </c>
       <c r="R3">
-        <v>24.31691753619516</v>
+        <v>832.2051628558351</v>
       </c>
       <c r="S3">
-        <v>0.05652038480133098</v>
+        <v>0.09231958420203257</v>
       </c>
       <c r="T3">
-        <v>0.05652038480133098</v>
+        <v>0.09231958420203257</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,60 +652,60 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>53.8558637142935</v>
+        <v>57.045267</v>
       </c>
       <c r="H4">
-        <v>53.8558637142935</v>
+        <v>171.135801</v>
       </c>
       <c r="I4">
-        <v>0.2646352687013955</v>
+        <v>0.2489699905037019</v>
       </c>
       <c r="J4">
-        <v>0.2646352687013955</v>
+        <v>0.2489699905037019</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.57441997040231</v>
+        <v>0.6530106666666667</v>
       </c>
       <c r="N4">
-        <v>1.57441997040231</v>
+        <v>1.959032</v>
       </c>
       <c r="O4">
-        <v>0.7447361746632023</v>
+        <v>0.1493821938570989</v>
       </c>
       <c r="P4">
-        <v>0.7447361746632023</v>
+        <v>0.1493821938570989</v>
       </c>
       <c r="Q4">
-        <v>84.79174735504881</v>
+        <v>37.25116783384801</v>
       </c>
       <c r="R4">
-        <v>84.79174735504881</v>
+        <v>335.2605105046321</v>
       </c>
       <c r="S4">
-        <v>0.197083457693646</v>
+        <v>0.03719168338602406</v>
       </c>
       <c r="T4">
-        <v>0.197083457693646</v>
+        <v>0.03719168338602406</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,60 +714,60 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>53.8558637142935</v>
+        <v>57.045267</v>
       </c>
       <c r="H5">
-        <v>53.8558637142935</v>
+        <v>171.135801</v>
       </c>
       <c r="I5">
-        <v>0.2646352687013955</v>
+        <v>0.2489699905037019</v>
       </c>
       <c r="J5">
-        <v>0.2646352687013955</v>
+        <v>0.2489699905037019</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.5396440753174</v>
+        <v>1.36727</v>
       </c>
       <c r="N5">
-        <v>0.5396440753174</v>
+        <v>4.10181</v>
       </c>
       <c r="O5">
-        <v>0.2552638253367977</v>
+        <v>0.3127755833416639</v>
       </c>
       <c r="P5">
-        <v>0.2552638253367977</v>
+        <v>0.3127755833416639</v>
       </c>
       <c r="Q5">
-        <v>29.06299777451983</v>
+        <v>77.99628221108999</v>
       </c>
       <c r="R5">
-        <v>29.06299777451983</v>
+        <v>701.96653989981</v>
       </c>
       <c r="S5">
-        <v>0.06755181100774955</v>
+        <v>0.07787173401436388</v>
       </c>
       <c r="T5">
-        <v>0.06755181100774955</v>
+        <v>0.07787173401436388</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -776,60 +776,60 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>60.8799474999549</v>
+        <v>54.09018966666667</v>
       </c>
       <c r="H6">
-        <v>60.8799474999549</v>
+        <v>162.270569</v>
       </c>
       <c r="I6">
-        <v>0.2991499932235144</v>
+        <v>0.2360727666969011</v>
       </c>
       <c r="J6">
-        <v>0.2991499932235144</v>
+        <v>0.2360727666969011</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>1.57441997040231</v>
+        <v>0.7301833333333333</v>
       </c>
       <c r="N6">
-        <v>1.57441997040231</v>
+        <v>2.19055</v>
       </c>
       <c r="O6">
-        <v>0.7447361746632023</v>
+        <v>0.1670361508916995</v>
       </c>
       <c r="P6">
-        <v>0.7447361746632023</v>
+        <v>0.1670361508916995</v>
       </c>
       <c r="Q6">
-        <v>95.85060514097319</v>
+        <v>39.49575499143889</v>
       </c>
       <c r="R6">
-        <v>95.85060514097319</v>
+        <v>355.46179492295</v>
       </c>
       <c r="S6">
-        <v>0.222787821603803</v>
+        <v>0.03943268627940455</v>
       </c>
       <c r="T6">
-        <v>0.222787821603803</v>
+        <v>0.03943268627940455</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -838,60 +838,60 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>60.8799474999549</v>
+        <v>54.09018966666667</v>
       </c>
       <c r="H7">
-        <v>60.8799474999549</v>
+        <v>162.270569</v>
       </c>
       <c r="I7">
-        <v>0.2991499932235144</v>
+        <v>0.2360727666969011</v>
       </c>
       <c r="J7">
-        <v>0.2991499932235144</v>
+        <v>0.2360727666969011</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.5396440753174</v>
+        <v>1.620945</v>
       </c>
       <c r="N7">
-        <v>0.5396440753174</v>
+        <v>4.862835</v>
       </c>
       <c r="O7">
-        <v>0.2552638253367977</v>
+        <v>0.3708060719095376</v>
       </c>
       <c r="P7">
-        <v>0.2552638253367977</v>
+        <v>0.3708060719095376</v>
       </c>
       <c r="Q7">
-        <v>32.85350297398502</v>
+        <v>87.67722248923499</v>
       </c>
       <c r="R7">
-        <v>32.85350297398502</v>
+        <v>789.0950024031149</v>
       </c>
       <c r="S7">
-        <v>0.0763621716197114</v>
+        <v>0.08753721530369461</v>
       </c>
       <c r="T7">
-        <v>0.0763621716197114</v>
+        <v>0.0875372153036946</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,60 +900,60 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>43.7129333554565</v>
+        <v>54.09018966666667</v>
       </c>
       <c r="H8">
-        <v>43.7129333554565</v>
+        <v>162.270569</v>
       </c>
       <c r="I8">
-        <v>0.2147952528552105</v>
+        <v>0.2360727666969011</v>
       </c>
       <c r="J8">
-        <v>0.2147952528552105</v>
+        <v>0.2360727666969011</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.57441997040231</v>
+        <v>0.6530106666666667</v>
       </c>
       <c r="N8">
-        <v>1.57441997040231</v>
+        <v>1.959032</v>
       </c>
       <c r="O8">
-        <v>0.7447361746632023</v>
+        <v>0.1493821938570989</v>
       </c>
       <c r="P8">
-        <v>0.7447361746632023</v>
+        <v>0.1493821938570989</v>
       </c>
       <c r="Q8">
-        <v>68.82251523969597</v>
+        <v>35.32147081435645</v>
       </c>
       <c r="R8">
-        <v>68.82251523969597</v>
+        <v>317.893237329208</v>
       </c>
       <c r="S8">
-        <v>0.1599657949472047</v>
+        <v>0.03526506779909816</v>
       </c>
       <c r="T8">
-        <v>0.1599657949472047</v>
+        <v>0.03526506779909815</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,55 +962,551 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>54.09018966666667</v>
+      </c>
+      <c r="H9">
+        <v>162.270569</v>
+      </c>
+      <c r="I9">
+        <v>0.2360727666969011</v>
+      </c>
+      <c r="J9">
+        <v>0.2360727666969011</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>1.36727</v>
+      </c>
+      <c r="N9">
+        <v>4.10181</v>
+      </c>
+      <c r="O9">
+        <v>0.3127755833416639</v>
+      </c>
+      <c r="P9">
+        <v>0.3127755833416639</v>
+      </c>
+      <c r="Q9">
+        <v>73.95589362554333</v>
+      </c>
+      <c r="R9">
+        <v>665.60304262989</v>
+      </c>
+      <c r="S9">
+        <v>0.07383779731470379</v>
+      </c>
+      <c r="T9">
+        <v>0.07383779731470377</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>43.7129333554565</v>
-      </c>
-      <c r="H9">
-        <v>43.7129333554565</v>
-      </c>
-      <c r="I9">
-        <v>0.2147952528552105</v>
-      </c>
-      <c r="J9">
-        <v>0.2147952528552105</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>0.5396440753174</v>
-      </c>
-      <c r="N9">
-        <v>0.5396440753174</v>
-      </c>
-      <c r="O9">
-        <v>0.2552638253367977</v>
-      </c>
-      <c r="P9">
-        <v>0.2552638253367977</v>
-      </c>
-      <c r="Q9">
-        <v>23.58942550001645</v>
-      </c>
-      <c r="R9">
-        <v>23.58942550001645</v>
-      </c>
-      <c r="S9">
-        <v>0.05482945790800574</v>
-      </c>
-      <c r="T9">
-        <v>0.05482945790800574</v>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>67.444722</v>
+      </c>
+      <c r="H10">
+        <v>202.334166</v>
+      </c>
+      <c r="I10">
+        <v>0.2943576685488177</v>
+      </c>
+      <c r="J10">
+        <v>0.2943576685488177</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.7301833333333333</v>
+      </c>
+      <c r="N10">
+        <v>2.19055</v>
+      </c>
+      <c r="O10">
+        <v>0.1670361508916995</v>
+      </c>
+      <c r="P10">
+        <v>0.1670361508916995</v>
+      </c>
+      <c r="Q10">
+        <v>49.24701192569999</v>
+      </c>
+      <c r="R10">
+        <v>443.2231073313</v>
+      </c>
+      <c r="S10">
+        <v>0.04916837193984919</v>
+      </c>
+      <c r="T10">
+        <v>0.0491683719398492</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>67.444722</v>
+      </c>
+      <c r="H11">
+        <v>202.334166</v>
+      </c>
+      <c r="I11">
+        <v>0.2943576685488177</v>
+      </c>
+      <c r="J11">
+        <v>0.2943576685488177</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1.620945</v>
+      </c>
+      <c r="N11">
+        <v>4.862835</v>
+      </c>
+      <c r="O11">
+        <v>0.3708060719095376</v>
+      </c>
+      <c r="P11">
+        <v>0.3708060719095376</v>
+      </c>
+      <c r="Q11">
+        <v>109.32418490229</v>
+      </c>
+      <c r="R11">
+        <v>983.9176641206099</v>
+      </c>
+      <c r="S11">
+        <v>0.1091496108110367</v>
+      </c>
+      <c r="T11">
+        <v>0.1091496108110367</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>67.444722</v>
+      </c>
+      <c r="H12">
+        <v>202.334166</v>
+      </c>
+      <c r="I12">
+        <v>0.2943576685488177</v>
+      </c>
+      <c r="J12">
+        <v>0.2943576685488177</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.6530106666666667</v>
+      </c>
+      <c r="N12">
+        <v>1.959032</v>
+      </c>
+      <c r="O12">
+        <v>0.1493821938570989</v>
+      </c>
+      <c r="P12">
+        <v>0.1493821938570989</v>
+      </c>
+      <c r="Q12">
+        <v>44.042122876368</v>
+      </c>
+      <c r="R12">
+        <v>396.379105887312</v>
+      </c>
+      <c r="S12">
+        <v>0.04397179430648315</v>
+      </c>
+      <c r="T12">
+        <v>0.04397179430648314</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>67.444722</v>
+      </c>
+      <c r="H13">
+        <v>202.334166</v>
+      </c>
+      <c r="I13">
+        <v>0.2943576685488177</v>
+      </c>
+      <c r="J13">
+        <v>0.2943576685488177</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M13">
+        <v>1.36727</v>
+      </c>
+      <c r="N13">
+        <v>4.10181</v>
+      </c>
+      <c r="O13">
+        <v>0.3127755833416639</v>
+      </c>
+      <c r="P13">
+        <v>0.3127755833416639</v>
+      </c>
+      <c r="Q13">
+        <v>92.21514504893999</v>
+      </c>
+      <c r="R13">
+        <v>829.9363054404598</v>
+      </c>
+      <c r="S13">
+        <v>0.09206789149144863</v>
+      </c>
+      <c r="T13">
+        <v>0.09206789149144863</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>50.54489333333333</v>
+      </c>
+      <c r="H14">
+        <v>151.63468</v>
+      </c>
+      <c r="I14">
+        <v>0.2205995742505793</v>
+      </c>
+      <c r="J14">
+        <v>0.2205995742505793</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.7301833333333333</v>
+      </c>
+      <c r="N14">
+        <v>2.19055</v>
+      </c>
+      <c r="O14">
+        <v>0.1670361508916995</v>
+      </c>
+      <c r="P14">
+        <v>0.1670361508916995</v>
+      </c>
+      <c r="Q14">
+        <v>36.90703869711111</v>
+      </c>
+      <c r="R14">
+        <v>332.163348274</v>
+      </c>
+      <c r="S14">
+        <v>0.03684810377116444</v>
+      </c>
+      <c r="T14">
+        <v>0.03684810377116444</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>50.54489333333333</v>
+      </c>
+      <c r="H15">
+        <v>151.63468</v>
+      </c>
+      <c r="I15">
+        <v>0.2205995742505793</v>
+      </c>
+      <c r="J15">
+        <v>0.2205995742505793</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1.620945</v>
+      </c>
+      <c r="N15">
+        <v>4.862835</v>
+      </c>
+      <c r="O15">
+        <v>0.3708060719095376</v>
+      </c>
+      <c r="P15">
+        <v>0.3708060719095376</v>
+      </c>
+      <c r="Q15">
+        <v>81.9304921242</v>
+      </c>
+      <c r="R15">
+        <v>737.3744291178</v>
+      </c>
+      <c r="S15">
+        <v>0.0817996615927737</v>
+      </c>
+      <c r="T15">
+        <v>0.0817996615927737</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>50.54489333333333</v>
+      </c>
+      <c r="H16">
+        <v>151.63468</v>
+      </c>
+      <c r="I16">
+        <v>0.2205995742505793</v>
+      </c>
+      <c r="J16">
+        <v>0.2205995742505793</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.6530106666666667</v>
+      </c>
+      <c r="N16">
+        <v>1.959032</v>
+      </c>
+      <c r="O16">
+        <v>0.1493821938570989</v>
+      </c>
+      <c r="P16">
+        <v>0.1493821938570989</v>
+      </c>
+      <c r="Q16">
+        <v>33.00635449219556</v>
+      </c>
+      <c r="R16">
+        <v>297.05719042976</v>
+      </c>
+      <c r="S16">
+        <v>0.03295364836549352</v>
+      </c>
+      <c r="T16">
+        <v>0.03295364836549351</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>50.54489333333333</v>
+      </c>
+      <c r="H17">
+        <v>151.63468</v>
+      </c>
+      <c r="I17">
+        <v>0.2205995742505793</v>
+      </c>
+      <c r="J17">
+        <v>0.2205995742505793</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>1.36727</v>
+      </c>
+      <c r="N17">
+        <v>4.10181</v>
+      </c>
+      <c r="O17">
+        <v>0.3127755833416639</v>
+      </c>
+      <c r="P17">
+        <v>0.3127755833416639</v>
+      </c>
+      <c r="Q17">
+        <v>69.10851630786665</v>
+      </c>
+      <c r="R17">
+        <v>621.9766467707999</v>
+      </c>
+      <c r="S17">
+        <v>0.06899816052114766</v>
+      </c>
+      <c r="T17">
+        <v>0.06899816052114766</v>
       </c>
     </row>
   </sheetData>
